--- a/resources/pinout-description.xlsx
+++ b/resources/pinout-description.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebastian/Developer/GuavaPi/GuavaPI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{AE892469-F15D-9E44-8008-370F59066011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{E3595060-B85B-B34C-9519-1A00AC0157CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17280" yWindow="760" windowWidth="17280" windowHeight="20560"/>
+    <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="27280"/>
   </bookViews>
   <sheets>
     <sheet name="pinout-description" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2246" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2246" uniqueCount="537">
   <si>
     <t>Ball#</t>
   </si>
@@ -1631,13 +1631,16 @@
   </si>
   <si>
     <t>GROUND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VCC_PG </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1768,6 +1771,13 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2114,8 +2124,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2471,11 +2483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:H290"/>
+  <dimension ref="A1:K290"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="B129" sqref="B129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4641,7 +4652,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>173</v>
       </c>
@@ -4667,7 +4678,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>177</v>
       </c>
@@ -4693,7 +4704,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>179</v>
       </c>
@@ -4719,7 +4730,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>181</v>
       </c>
@@ -4745,7 +4756,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>184</v>
       </c>
@@ -4771,7 +4782,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>186</v>
       </c>
@@ -4797,7 +4808,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>188</v>
       </c>
@@ -4823,7 +4834,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>190</v>
       </c>
@@ -4849,7 +4860,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>192</v>
       </c>
@@ -4875,7 +4886,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>194</v>
       </c>
@@ -4901,7 +4912,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>196</v>
       </c>
@@ -4927,7 +4938,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>198</v>
       </c>
@@ -4953,7 +4964,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>200</v>
       </c>
@@ -4979,7 +4990,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>203</v>
       </c>
@@ -5005,7 +5016,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>205</v>
       </c>
@@ -5031,7 +5042,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>207</v>
       </c>
@@ -5056,8 +5067,9 @@
       <c r="H99" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K99" s="1"/>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>209</v>
       </c>
@@ -5083,7 +5095,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>211</v>
       </c>
@@ -5109,7 +5121,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>212</v>
       </c>
@@ -5135,7 +5147,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>215</v>
       </c>
@@ -5161,7 +5173,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>217</v>
       </c>
@@ -5187,7 +5199,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>219</v>
       </c>
@@ -5213,7 +5225,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>221</v>
       </c>
@@ -5239,7 +5251,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>223</v>
       </c>
@@ -5265,7 +5277,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>225</v>
       </c>
@@ -5291,7 +5303,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>227</v>
       </c>
@@ -5317,7 +5329,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>230</v>
       </c>
@@ -5343,7 +5355,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>232</v>
       </c>
@@ -5369,7 +5381,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>234</v>
       </c>
@@ -5395,7 +5407,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>236</v>
       </c>
@@ -5421,7 +5433,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>238</v>
       </c>
@@ -5447,7 +5459,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>240</v>
       </c>
@@ -5473,7 +5485,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>242</v>
       </c>
@@ -5499,7 +5511,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>244</v>
       </c>
@@ -5525,7 +5537,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>246</v>
       </c>
@@ -5551,7 +5563,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="119" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>248</v>
       </c>
@@ -5577,7 +5589,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="120" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>250</v>
       </c>
@@ -5603,7 +5615,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>252</v>
       </c>
@@ -5629,7 +5641,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>254</v>
       </c>
@@ -5655,7 +5667,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>256</v>
       </c>
@@ -5681,7 +5693,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="124" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>258</v>
       </c>
@@ -5707,7 +5719,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="125" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>260</v>
       </c>
@@ -5733,7 +5745,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="126" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>262</v>
       </c>
@@ -5759,7 +5771,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="127" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>264</v>
       </c>
@@ -5785,7 +5797,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="128" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>266</v>
       </c>
@@ -5811,12 +5823,12 @@
         <v>523</v>
       </c>
     </row>
-    <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>268</v>
       </c>
-      <c r="B129" t="s">
-        <v>11</v>
+      <c r="B129" s="2" t="s">
+        <v>536</v>
       </c>
       <c r="C129" t="s">
         <v>166</v>
@@ -5837,7 +5849,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="130" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>269</v>
       </c>
@@ -5863,7 +5875,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="131" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>272</v>
       </c>
@@ -5889,7 +5901,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="132" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>274</v>
       </c>
@@ -5915,7 +5927,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="133" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>276</v>
       </c>
@@ -5941,7 +5953,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>278</v>
       </c>
@@ -5967,7 +5979,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="135" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>280</v>
       </c>
@@ -5993,7 +6005,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>282</v>
       </c>
@@ -6019,7 +6031,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="137" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>284</v>
       </c>
@@ -6045,7 +6057,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="138" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>286</v>
       </c>
@@ -6071,7 +6083,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="139" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>288</v>
       </c>
@@ -6097,7 +6109,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>290</v>
       </c>
@@ -6123,7 +6135,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>292</v>
       </c>
@@ -6149,7 +6161,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="142" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>295</v>
       </c>
@@ -6175,7 +6187,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="143" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>297</v>
       </c>
@@ -6201,7 +6213,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="144" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>190</v>
       </c>
@@ -6227,7 +6239,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="145" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>300</v>
       </c>
@@ -6253,7 +6265,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>302</v>
       </c>
@@ -6279,7 +6291,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="147" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>303</v>
       </c>
@@ -6305,7 +6317,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="148" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>305</v>
       </c>
@@ -6331,7 +6343,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="149" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>307</v>
       </c>
@@ -6357,7 +6369,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="150" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>309</v>
       </c>
@@ -6383,7 +6395,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="151" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>311</v>
       </c>
@@ -6409,7 +6421,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="152" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>313</v>
       </c>
@@ -6435,7 +6447,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>315</v>
       </c>
@@ -6461,7 +6473,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="154" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>317</v>
       </c>
@@ -6487,7 +6499,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="155" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>319</v>
       </c>
@@ -6513,7 +6525,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="156" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>321</v>
       </c>
@@ -6539,7 +6551,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>323</v>
       </c>
@@ -6565,7 +6577,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="158" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>325</v>
       </c>
@@ -6591,7 +6603,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="159" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>326</v>
       </c>
@@ -6617,7 +6629,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="160" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>329</v>
       </c>
@@ -6643,7 +6655,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="161" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>331</v>
       </c>
@@ -6669,7 +6681,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="162" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>334</v>
       </c>
@@ -6695,7 +6707,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>336</v>
       </c>
@@ -6721,7 +6733,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="164" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>339</v>
       </c>
@@ -6747,7 +6759,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="165" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>342</v>
       </c>
@@ -6773,7 +6785,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>345</v>
       </c>
@@ -6799,7 +6811,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>349</v>
       </c>
@@ -6825,7 +6837,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="168" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>351</v>
       </c>
@@ -6851,7 +6863,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="169" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>353</v>
       </c>
@@ -6877,7 +6889,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="170" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>355</v>
       </c>
@@ -6903,7 +6915,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="171" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>357</v>
       </c>
@@ -6929,7 +6941,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="172" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>359</v>
       </c>
@@ -6955,7 +6967,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>361</v>
       </c>
@@ -6981,7 +6993,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="174" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>363</v>
       </c>
@@ -7007,7 +7019,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="175" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>364</v>
       </c>
@@ -7033,7 +7045,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="176" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>367</v>
       </c>
@@ -7059,7 +7071,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="177" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>369</v>
       </c>
@@ -7085,7 +7097,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="178" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>371</v>
       </c>
@@ -7111,7 +7123,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="179" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>373</v>
       </c>
@@ -7137,7 +7149,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="180" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>375</v>
       </c>
@@ -7163,7 +7175,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="181" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>377</v>
       </c>
@@ -7189,7 +7201,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="182" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>379</v>
       </c>
@@ -7215,7 +7227,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="183" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>381</v>
       </c>
@@ -7241,7 +7253,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="184" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>383</v>
       </c>
@@ -7267,7 +7279,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="185" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>385</v>
       </c>
@@ -7293,7 +7305,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="186" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>387</v>
       </c>
@@ -7319,7 +7331,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="187" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>389</v>
       </c>
@@ -7345,7 +7357,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="188" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>390</v>
       </c>
@@ -7371,7 +7383,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="189" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>393</v>
       </c>
@@ -7397,7 +7409,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="190" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>394</v>
       </c>
@@ -7423,7 +7435,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="191" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>396</v>
       </c>
@@ -7449,7 +7461,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="192" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>398</v>
       </c>
@@ -7475,7 +7487,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="193" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>399</v>
       </c>
@@ -7501,7 +7513,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="194" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>401</v>
       </c>
@@ -7527,7 +7539,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="195" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>403</v>
       </c>
@@ -7553,7 +7565,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="196" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>406</v>
       </c>
@@ -7579,7 +7591,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="197" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>408</v>
       </c>
@@ -7605,7 +7617,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="198" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>411</v>
       </c>
@@ -7631,7 +7643,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="199" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>412</v>
       </c>
@@ -7657,7 +7669,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="200" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>416</v>
       </c>
@@ -7683,7 +7695,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="201" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>419</v>
       </c>
@@ -7709,7 +7721,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="202" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>421</v>
       </c>
@@ -7735,7 +7747,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="203" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>423</v>
       </c>
@@ -7761,7 +7773,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="204" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>425</v>
       </c>
@@ -7787,7 +7799,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="205" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>426</v>
       </c>
@@ -7813,7 +7825,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="206" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>429</v>
       </c>
@@ -7839,7 +7851,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="207" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>431</v>
       </c>
@@ -7865,7 +7877,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="208" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>433</v>
       </c>
@@ -7891,7 +7903,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="209" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>435</v>
       </c>
@@ -7917,7 +7929,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="210" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>437</v>
       </c>
@@ -7943,7 +7955,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="211" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>438</v>
       </c>
@@ -7969,7 +7981,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="212" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>440</v>
       </c>
@@ -7995,7 +8007,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="213" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>441</v>
       </c>
@@ -8021,7 +8033,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="214" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>442</v>
       </c>
@@ -8047,7 +8059,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="215" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>443</v>
       </c>
@@ -8073,7 +8085,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="216" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>444</v>
       </c>
@@ -8099,7 +8111,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="217" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>445</v>
       </c>
@@ -8125,7 +8137,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="218" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>447</v>
       </c>
@@ -8151,7 +8163,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="219" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>449</v>
       </c>
@@ -8177,7 +8189,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="220" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>450</v>
       </c>
@@ -8203,7 +8215,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="221" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>451</v>
       </c>
@@ -8229,7 +8241,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="222" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>445</v>
       </c>
@@ -8255,7 +8267,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="223" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>447</v>
       </c>
@@ -8281,7 +8293,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="224" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>449</v>
       </c>
@@ -8307,7 +8319,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="225" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>450</v>
       </c>
@@ -8333,7 +8345,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="226" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>451</v>
       </c>
@@ -8359,7 +8371,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="227" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>452</v>
       </c>
@@ -8385,7 +8397,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="228" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>454</v>
       </c>
@@ -8411,7 +8423,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="229" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>456</v>
       </c>
@@ -8437,7 +8449,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="230" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>457</v>
       </c>
@@ -8463,7 +8475,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="231" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>458</v>
       </c>
@@ -8489,7 +8501,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="232" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>459</v>
       </c>
@@ -8515,7 +8527,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="233" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>460</v>
       </c>
@@ -8541,7 +8553,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="234" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>461</v>
       </c>
@@ -8567,7 +8579,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="235" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>462</v>
       </c>
@@ -8593,7 +8605,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="236" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>464</v>
       </c>
@@ -8619,7 +8631,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="237" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>465</v>
       </c>
@@ -8645,7 +8657,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="238" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>466</v>
       </c>
@@ -8671,7 +8683,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="239" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>467</v>
       </c>
@@ -8697,7 +8709,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="240" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>468</v>
       </c>
@@ -8723,7 +8735,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="241" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>469</v>
       </c>
@@ -8749,7 +8761,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="242" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>470</v>
       </c>
@@ -8775,7 +8787,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="243" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>471</v>
       </c>
@@ -8801,7 +8813,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="244" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>472</v>
       </c>
@@ -8827,7 +8839,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="245" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>473</v>
       </c>
@@ -8853,7 +8865,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="246" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>474</v>
       </c>
@@ -8879,7 +8891,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="247" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>475</v>
       </c>
@@ -8905,7 +8917,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="248" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>476</v>
       </c>
@@ -8931,7 +8943,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="249" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>477</v>
       </c>
@@ -8957,7 +8969,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="250" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>478</v>
       </c>
@@ -8983,7 +8995,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="251" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>479</v>
       </c>
@@ -9009,7 +9021,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="252" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>480</v>
       </c>
@@ -9035,7 +9047,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="253" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>481</v>
       </c>
@@ -9061,7 +9073,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="254" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>482</v>
       </c>
@@ -9087,7 +9099,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="255" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>483</v>
       </c>
@@ -9113,7 +9125,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="256" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>484</v>
       </c>
@@ -9139,7 +9151,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="257" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>485</v>
       </c>
@@ -9165,7 +9177,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="258" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>486</v>
       </c>
@@ -9191,7 +9203,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="259" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>487</v>
       </c>
@@ -9217,7 +9229,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="260" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>488</v>
       </c>
@@ -9243,7 +9255,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="261" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>489</v>
       </c>
@@ -9269,7 +9281,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="262" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>490</v>
       </c>
@@ -9295,7 +9307,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="263" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>491</v>
       </c>
@@ -9321,7 +9333,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="264" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>492</v>
       </c>
@@ -9347,7 +9359,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="265" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>493</v>
       </c>
@@ -9373,7 +9385,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="266" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>494</v>
       </c>
@@ -9399,7 +9411,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="267" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>495</v>
       </c>
@@ -9425,7 +9437,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="268" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>496</v>
       </c>
@@ -9451,7 +9463,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="269" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>497</v>
       </c>
@@ -9477,7 +9489,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="270" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>498</v>
       </c>
@@ -9503,7 +9515,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="271" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>499</v>
       </c>
@@ -9529,7 +9541,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="272" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>500</v>
       </c>
@@ -9555,7 +9567,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="273" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>501</v>
       </c>
@@ -9581,7 +9593,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="274" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>502</v>
       </c>
@@ -9607,7 +9619,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="275" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>503</v>
       </c>
@@ -9633,7 +9645,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="276" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>504</v>
       </c>
@@ -9659,7 +9671,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="277" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>505</v>
       </c>
@@ -9685,7 +9697,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="278" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>506</v>
       </c>
@@ -9711,7 +9723,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="279" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>507</v>
       </c>
@@ -9737,7 +9749,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="280" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>508</v>
       </c>
@@ -9763,7 +9775,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="281" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>509</v>
       </c>
@@ -9789,7 +9801,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="282" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>510</v>
       </c>
@@ -9815,7 +9827,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="283" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>511</v>
       </c>
@@ -9841,7 +9853,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="284" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>512</v>
       </c>
@@ -9867,7 +9879,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="285" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>513</v>
       </c>
@@ -9893,7 +9905,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="286" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>514</v>
       </c>
@@ -9919,7 +9931,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="287" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>515</v>
       </c>
@@ -9945,7 +9957,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="288" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>516</v>
       </c>
@@ -9971,7 +9983,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="289" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>517</v>
       </c>
@@ -9997,7 +10009,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="290" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>518</v>
       </c>
@@ -10024,13 +10036,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H290">
-    <filterColumn colId="7">
-      <filters>
-        <filter val="SDRAM"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:H290"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
